--- a/municipal/ENG/Hotels/Guests/Adjara A.R/Kobuleti Municipality.xlsx
+++ b/municipal/ENG/Hotels/Guests/Adjara A.R/Kobuleti Municipality.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\4.4 Guests\Adjara A.R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სასტუმროები ქარ. EN\4.4 Guests\Adjara A.R\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,15 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="18">
   <si>
     <t>Citizenship</t>
   </si>
   <si>
     <t>From Georgia</t>
-  </si>
-  <si>
-    <t>(Men)</t>
   </si>
   <si>
     <t>Business trip</t>
@@ -117,6 +114,12 @@
       </rPr>
       <t>Legal and individual enterprises registered in accordance with the Georgian legislation (including local units and branches).</t>
     </r>
+  </si>
+  <si>
+    <t>(person)</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
 </sst>
 </file>
@@ -342,6 +345,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -371,14 +380,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -665,7 +666,7 @@
   <dimension ref="A1:BI188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -677,14 +678,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" s="12" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
+      <c r="A1" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
@@ -694,13 +695,13 @@
     </row>
     <row r="2" spans="1:61" s="7" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
+        <v>16</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
@@ -758,18 +759,18 @@
       <c r="BI2" s="14"/>
     </row>
     <row r="3" spans="1:61" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
+      <c r="B3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
@@ -827,19 +828,19 @@
       <c r="BI3" s="14"/>
     </row>
     <row r="4" spans="1:61" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="40"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="30" t="s">
+      <c r="F4" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>7</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -898,14 +899,14 @@
       <c r="BI4" s="3"/>
     </row>
     <row r="5" spans="1:61" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="35">
+      <c r="A5" s="39">
         <v>2010</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -964,7 +965,7 @@
     </row>
     <row r="6" spans="1:61" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="9">
         <v>33750</v>
@@ -976,10 +977,10 @@
         <v>124</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1039,13 +1040,13 @@
     </row>
     <row r="7" spans="1:61" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+        <v>12</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1116,10 +1117,10 @@
         <v>40</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
@@ -1179,7 +1180,7 @@
     </row>
     <row r="9" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="10">
         <v>5752</v>
@@ -1191,10 +1192,10 @@
         <v>84</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
@@ -1254,13 +1255,13 @@
     </row>
     <row r="10" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
+        <v>12</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
@@ -1319,7 +1320,7 @@
     </row>
     <row r="11" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="10">
         <v>382</v>
@@ -1331,10 +1332,10 @@
         <v>32</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
@@ -1394,7 +1395,7 @@
     </row>
     <row r="12" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="10">
         <v>4510</v>
@@ -1406,10 +1407,10 @@
         <v>17</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
@@ -1469,22 +1470,22 @@
     </row>
     <row r="13" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="45">
+        <v>9</v>
+      </c>
+      <c r="B13" s="35">
         <v>860</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="35">
         <v>825</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="35">
         <v>35</v>
       </c>
-      <c r="E13" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="46" t="s">
-        <v>14</v>
+      <c r="E13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
@@ -1543,14 +1544,14 @@
       <c r="BI13" s="25"/>
     </row>
     <row r="14" spans="1:61" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="33">
+      <c r="A14" s="37">
         <v>2011</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1609,7 +1610,7 @@
     </row>
     <row r="15" spans="1:61" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="9">
         <v>46022</v>
@@ -1621,10 +1622,10 @@
         <v>211</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
@@ -1684,13 +1685,13 @@
     </row>
     <row r="16" spans="1:61" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
@@ -1761,15 +1762,15 @@
         <v>167</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="10">
         <v>8636</v>
@@ -1781,25 +1782,25 @@
         <v>44</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="10">
         <v>557</v>
@@ -1811,15 +1812,15 @@
         <v>7</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="10">
         <v>5334</v>
@@ -1831,45 +1832,45 @@
         <v>11</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="45">
+        <v>9</v>
+      </c>
+      <c r="B22" s="35">
         <v>2745</v>
       </c>
-      <c r="C22" s="45">
+      <c r="C22" s="35">
         <v>2719</v>
       </c>
-      <c r="D22" s="45">
+      <c r="D22" s="35">
         <v>26</v>
       </c>
-      <c r="E22" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="46" t="s">
-        <v>14</v>
+      <c r="E22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="33">
+      <c r="A23" s="37">
         <v>2012</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" s="9">
         <v>56851</v>
@@ -1881,21 +1882,21 @@
         <v>727</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
+        <v>12</v>
+      </c>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="24" t="s">
@@ -1911,15 +1912,15 @@
         <v>447</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" s="10">
         <v>8904</v>
@@ -1931,25 +1932,25 @@
         <v>280</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
+        <v>12</v>
+      </c>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29" s="10">
         <v>753</v>
@@ -1961,15 +1962,15 @@
         <v>134</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" s="10">
         <v>5380</v>
@@ -1981,45 +1982,45 @@
         <v>112</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="46" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="33">
+      <c r="A32" s="37">
         <v>2013</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" s="9">
         <v>56311</v>
@@ -2031,21 +2032,21 @@
         <v>293</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
+        <v>12</v>
+      </c>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
@@ -2061,15 +2062,15 @@
         <v>50</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B36" s="10">
         <v>11922</v>
@@ -2081,25 +2082,25 @@
         <v>243</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
+        <v>12</v>
+      </c>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
     </row>
     <row r="38" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" s="10">
         <v>973</v>
@@ -2111,15 +2112,15 @@
         <v>177</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39" s="10">
         <v>10587</v>
@@ -2131,45 +2132,45 @@
         <v>9</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="46" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="33">
+      <c r="A41" s="37">
         <v>2014</v>
       </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
     </row>
     <row r="42" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B42" s="9">
         <v>55669</v>
@@ -2181,21 +2182,21 @@
         <v>1071</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
+        <v>12</v>
+      </c>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
     </row>
     <row r="44" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="24" t="s">
@@ -2211,15 +2212,15 @@
         <v>955</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45" s="10">
         <v>23237</v>
@@ -2231,25 +2232,25 @@
         <v>116</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
+        <v>12</v>
+      </c>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
     </row>
     <row r="47" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B47" s="10">
         <v>2198</v>
@@ -2261,15 +2262,15 @@
         <v>28</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48" s="10">
         <v>20636</v>
@@ -2281,45 +2282,45 @@
         <v>67</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="45">
+        <v>9</v>
+      </c>
+      <c r="B49" s="35">
         <v>403</v>
       </c>
-      <c r="C49" s="45">
+      <c r="C49" s="35">
         <v>382</v>
       </c>
-      <c r="D49" s="45">
+      <c r="D49" s="35">
         <v>21</v>
       </c>
-      <c r="E49" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="46" t="s">
-        <v>14</v>
+      <c r="E49" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="33">
+      <c r="A50" s="37">
         <v>2015</v>
       </c>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
     </row>
     <row r="51" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B51" s="9">
         <v>52090</v>
@@ -2331,21 +2332,21 @@
         <v>334</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
+        <v>12</v>
+      </c>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
     </row>
     <row r="53" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="24" t="s">
@@ -2361,15 +2362,15 @@
         <v>268</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B54" s="10">
         <v>21266</v>
@@ -2381,25 +2382,25 @@
         <v>66</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" s="44"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
+        <v>12</v>
+      </c>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
     </row>
     <row r="56" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B56" s="10">
         <v>1552</v>
@@ -2411,15 +2412,15 @@
         <v>1</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B57" s="10">
         <v>18862</v>
@@ -2431,45 +2432,45 @@
         <v>59</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="45">
+        <v>9</v>
+      </c>
+      <c r="B58" s="35">
         <v>852</v>
       </c>
-      <c r="C58" s="45">
+      <c r="C58" s="35">
         <v>846</v>
       </c>
-      <c r="D58" s="45">
+      <c r="D58" s="35">
         <v>6</v>
       </c>
-      <c r="E58" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" s="46" t="s">
-        <v>14</v>
+      <c r="E58" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="33">
+      <c r="A59" s="37">
         <v>2016</v>
       </c>
-      <c r="B59" s="33"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
     </row>
     <row r="60" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B60" s="9">
         <v>65711</v>
@@ -2481,21 +2482,21 @@
         <v>291</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" s="43"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="43"/>
-      <c r="F61" s="43"/>
+        <v>12</v>
+      </c>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
     </row>
     <row r="62" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="24" t="s">
@@ -2511,15 +2512,15 @@
         <v>225</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B63" s="10">
         <v>26585</v>
@@ -2531,25 +2532,25 @@
         <v>66</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" s="44"/>
-      <c r="C64" s="44"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="44"/>
+        <v>12</v>
+      </c>
+      <c r="B64" s="34"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
     </row>
     <row r="65" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B65" s="10">
         <v>1713</v>
@@ -2561,15 +2562,15 @@
         <v>7</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B66" s="10">
         <v>22228</v>
@@ -2581,45 +2582,45 @@
         <v>37</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B67" s="45">
+        <v>9</v>
+      </c>
+      <c r="B67" s="35">
         <v>2644</v>
       </c>
-      <c r="C67" s="45">
+      <c r="C67" s="35">
         <v>2622</v>
       </c>
-      <c r="D67" s="45">
+      <c r="D67" s="35">
         <v>22</v>
       </c>
-      <c r="E67" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="46" t="s">
-        <v>14</v>
+      <c r="E67" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="33">
+      <c r="A68" s="37">
         <v>2017</v>
       </c>
-      <c r="B68" s="33"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="33"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
     </row>
     <row r="69" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B69" s="9">
         <v>73151</v>
@@ -2631,21 +2632,21 @@
         <v>2396</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" s="43"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="43"/>
-      <c r="E70" s="43"/>
-      <c r="F70" s="43"/>
+        <v>12</v>
+      </c>
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
     </row>
     <row r="71" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="24" t="s">
@@ -2661,15 +2662,15 @@
         <v>2363</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B72" s="10">
         <v>34030</v>
@@ -2681,25 +2682,25 @@
         <v>33</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" s="44"/>
-      <c r="C73" s="44"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="44"/>
-      <c r="F73" s="44"/>
+        <v>12</v>
+      </c>
+      <c r="B73" s="34"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
     </row>
     <row r="74" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B74" s="10">
         <v>2343</v>
@@ -2711,15 +2712,15 @@
         <v>4</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B75" s="10">
         <v>28110</v>
@@ -2728,48 +2729,48 @@
         <v>28110</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B76" s="45">
+        <v>9</v>
+      </c>
+      <c r="B76" s="35">
         <v>3577</v>
       </c>
-      <c r="C76" s="45">
+      <c r="C76" s="35">
         <v>3548</v>
       </c>
-      <c r="D76" s="45">
+      <c r="D76" s="35">
         <v>29</v>
       </c>
-      <c r="E76" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" s="46" t="s">
-        <v>14</v>
+      <c r="E76" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="33">
+      <c r="A77" s="37">
         <v>2018</v>
       </c>
-      <c r="B77" s="33"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="33"/>
-      <c r="E77" s="33"/>
-      <c r="F77" s="33"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="37"/>
     </row>
     <row r="78" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B78" s="9">
         <v>83459</v>
@@ -2781,7 +2782,7 @@
         <v>386</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F78" s="9">
         <v>25</v>
@@ -2789,13 +2790,13 @@
     </row>
     <row r="79" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B79" s="43"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="43"/>
-      <c r="E79" s="43"/>
-      <c r="F79" s="43"/>
+        <v>12</v>
+      </c>
+      <c r="B79" s="36"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="36"/>
     </row>
     <row r="80" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="24" t="s">
@@ -2811,15 +2812,15 @@
         <v>288</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" s="9">
+        <v>13</v>
+      </c>
+      <c r="F80" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B81" s="10">
         <v>42732</v>
@@ -2831,25 +2832,25 @@
         <v>98</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="9">
+        <v>13</v>
+      </c>
+      <c r="F81" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B82" s="44"/>
-      <c r="C82" s="44"/>
-      <c r="D82" s="44"/>
-      <c r="E82" s="44"/>
-      <c r="F82" s="44"/>
+        <v>12</v>
+      </c>
+      <c r="B82" s="34"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="34"/>
     </row>
     <row r="83" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B83" s="10">
         <v>3262</v>
@@ -2861,15 +2862,15 @@
         <v>3</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B84" s="10">
         <v>35103</v>
@@ -2881,45 +2882,45 @@
         <v>75</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" s="9">
+        <v>13</v>
+      </c>
+      <c r="F84" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B85" s="45">
+        <v>9</v>
+      </c>
+      <c r="B85" s="35">
         <v>4367</v>
       </c>
-      <c r="C85" s="45">
+      <c r="C85" s="35">
         <v>4347</v>
       </c>
-      <c r="D85" s="45">
+      <c r="D85" s="35">
         <v>20</v>
       </c>
-      <c r="E85" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" s="46" t="s">
-        <v>14</v>
+      <c r="E85" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="35" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="33">
+      <c r="A86" s="37">
         <v>2019</v>
       </c>
-      <c r="B86" s="33"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="33"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="37"/>
+      <c r="F86" s="37"/>
     </row>
     <row r="87" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B87" s="9">
         <v>87170</v>
@@ -2939,13 +2940,13 @@
     </row>
     <row r="88" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B88" s="43"/>
-      <c r="C88" s="43"/>
-      <c r="D88" s="43"/>
-      <c r="E88" s="43"/>
-      <c r="F88" s="43"/>
+        <v>12</v>
+      </c>
+      <c r="B88" s="36"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="36"/>
     </row>
     <row r="89" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="24" t="s">
@@ -2960,16 +2961,16 @@
       <c r="D89" s="10">
         <v>1389</v>
       </c>
-      <c r="E89" s="9">
+      <c r="E89" s="10">
         <v>2</v>
       </c>
-      <c r="F89" s="9">
+      <c r="F89" s="10">
         <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B90" s="10">
         <v>41947</v>
@@ -2980,26 +2981,26 @@
       <c r="D90" s="10">
         <v>284</v>
       </c>
-      <c r="E90" s="9">
+      <c r="E90" s="10">
         <v>85</v>
       </c>
-      <c r="F90" s="9">
+      <c r="F90" s="10">
         <v>126</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B91" s="44"/>
-      <c r="C91" s="44"/>
-      <c r="D91" s="44"/>
-      <c r="E91" s="44"/>
-      <c r="F91" s="44"/>
+        <v>12</v>
+      </c>
+      <c r="B91" s="34"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="34"/>
+      <c r="F91" s="34"/>
     </row>
     <row r="92" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B92" s="10">
         <v>5186</v>
@@ -3010,16 +3011,16 @@
       <c r="D92" s="10">
         <v>124</v>
       </c>
-      <c r="E92" s="9">
+      <c r="E92" s="10">
         <v>20</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B93" s="10">
         <v>31012</v>
@@ -3030,46 +3031,46 @@
       <c r="D93" s="10">
         <v>85</v>
       </c>
-      <c r="E93" s="9">
+      <c r="E93" s="10">
         <v>45</v>
       </c>
-      <c r="F93" s="9">
+      <c r="F93" s="10">
         <v>85</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B94" s="45">
+        <v>9</v>
+      </c>
+      <c r="B94" s="35">
         <v>5749</v>
       </c>
-      <c r="C94" s="45">
+      <c r="C94" s="35">
         <v>5613</v>
       </c>
-      <c r="D94" s="45">
+      <c r="D94" s="35">
         <v>75</v>
       </c>
-      <c r="E94" s="46">
+      <c r="E94" s="35">
         <v>20</v>
       </c>
-      <c r="F94" s="46">
+      <c r="F94" s="35">
         <v>41</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="33">
+      <c r="A95" s="37">
         <v>2020</v>
       </c>
-      <c r="B95" s="33"/>
-      <c r="C95" s="33"/>
-      <c r="D95" s="33"/>
-      <c r="E95" s="33"/>
-      <c r="F95" s="33"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="37"/>
+      <c r="D95" s="37"/>
+      <c r="E95" s="37"/>
+      <c r="F95" s="37"/>
     </row>
     <row r="96" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B96" s="9">
         <v>50342</v>
@@ -3089,13 +3090,13 @@
     </row>
     <row r="97" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B97" s="43"/>
-      <c r="C97" s="43"/>
-      <c r="D97" s="43"/>
-      <c r="E97" s="43"/>
-      <c r="F97" s="43"/>
+        <v>12</v>
+      </c>
+      <c r="B97" s="36"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="36"/>
+      <c r="F97" s="36"/>
     </row>
     <row r="98" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="24" t="s">
@@ -3110,16 +3111,16 @@
       <c r="D98" s="10">
         <v>6325</v>
       </c>
-      <c r="E98" s="9">
+      <c r="E98" s="10">
         <v>3239</v>
       </c>
-      <c r="F98" s="9">
+      <c r="F98" s="10">
         <v>1051</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B99" s="10">
         <v>5027</v>
@@ -3130,26 +3131,26 @@
       <c r="D99" s="10">
         <v>7</v>
       </c>
-      <c r="E99" s="9">
+      <c r="E99" s="10">
         <v>2</v>
       </c>
-      <c r="F99" s="9">
+      <c r="F99" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B100" s="44"/>
-      <c r="C100" s="44"/>
-      <c r="D100" s="44"/>
-      <c r="E100" s="44"/>
-      <c r="F100" s="44"/>
+        <v>12</v>
+      </c>
+      <c r="B100" s="34"/>
+      <c r="C100" s="34"/>
+      <c r="D100" s="34"/>
+      <c r="E100" s="34"/>
+      <c r="F100" s="34"/>
     </row>
     <row r="101" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B101" s="10">
         <v>380</v>
@@ -3161,15 +3162,15 @@
         <v>7</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B102" s="10">
         <v>2791</v>
@@ -3177,49 +3178,49 @@
       <c r="C102" s="10">
         <v>2781</v>
       </c>
-      <c r="D102" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E102" s="9">
+      <c r="D102" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102" s="10">
         <v>2</v>
       </c>
-      <c r="F102" s="9">
+      <c r="F102" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B103" s="45">
+        <v>9</v>
+      </c>
+      <c r="B103" s="35">
         <v>1856</v>
       </c>
-      <c r="C103" s="45">
+      <c r="C103" s="35">
         <v>1856</v>
       </c>
-      <c r="D103" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="E103" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="F103" s="46" t="s">
-        <v>14</v>
+      <c r="D103" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" s="35" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="33">
+      <c r="A104" s="37">
         <v>2021</v>
       </c>
-      <c r="B104" s="33"/>
-      <c r="C104" s="33"/>
-      <c r="D104" s="33"/>
-      <c r="E104" s="33"/>
-      <c r="F104" s="33"/>
+      <c r="B104" s="37"/>
+      <c r="C104" s="37"/>
+      <c r="D104" s="37"/>
+      <c r="E104" s="37"/>
+      <c r="F104" s="37"/>
     </row>
     <row r="105" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B105" s="9">
         <v>57620</v>
@@ -3239,13 +3240,13 @@
     </row>
     <row r="106" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B106" s="43"/>
-      <c r="C106" s="43"/>
-      <c r="D106" s="43"/>
-      <c r="E106" s="43"/>
-      <c r="F106" s="43"/>
+        <v>12</v>
+      </c>
+      <c r="B106" s="36"/>
+      <c r="C106" s="36"/>
+      <c r="D106" s="36"/>
+      <c r="E106" s="36"/>
+      <c r="F106" s="36"/>
     </row>
     <row r="107" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="24" t="s">
@@ -3260,16 +3261,16 @@
       <c r="D107" s="10">
         <v>703</v>
       </c>
-      <c r="E107" s="9">
+      <c r="E107" s="10">
         <v>1871</v>
       </c>
-      <c r="F107" s="9">
+      <c r="F107" s="10">
         <v>722</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B108" s="10">
         <v>13334</v>
@@ -3280,26 +3281,26 @@
       <c r="D108" s="10">
         <v>133</v>
       </c>
-      <c r="E108" s="9">
+      <c r="E108" s="10">
         <v>27</v>
       </c>
-      <c r="F108" s="9">
+      <c r="F108" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B109" s="44"/>
-      <c r="C109" s="44"/>
-      <c r="D109" s="44"/>
-      <c r="E109" s="44"/>
-      <c r="F109" s="44"/>
+        <v>12</v>
+      </c>
+      <c r="B109" s="34"/>
+      <c r="C109" s="34"/>
+      <c r="D109" s="34"/>
+      <c r="E109" s="34"/>
+      <c r="F109" s="34"/>
     </row>
     <row r="110" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B110" s="10">
         <v>1546</v>
@@ -3310,16 +3311,16 @@
       <c r="D110" s="10">
         <v>89</v>
       </c>
-      <c r="E110" s="9">
+      <c r="E110" s="10">
         <v>10</v>
       </c>
-      <c r="F110" s="9">
+      <c r="F110" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B111" s="10">
         <v>5742</v>
@@ -3330,36 +3331,36 @@
       <c r="D111" s="10">
         <v>34</v>
       </c>
-      <c r="E111" s="9">
+      <c r="E111" s="10">
         <v>12</v>
       </c>
-      <c r="F111" s="9">
+      <c r="F111" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" s="35">
+        <v>6046</v>
+      </c>
+      <c r="C112" s="35">
+        <v>6029</v>
+      </c>
+      <c r="D112" s="35">
         <v>10</v>
       </c>
-      <c r="B112" s="45">
-        <v>6046</v>
-      </c>
-      <c r="C112" s="45">
-        <v>6029</v>
-      </c>
-      <c r="D112" s="45">
-        <v>10</v>
-      </c>
-      <c r="E112" s="46">
+      <c r="E112" s="35">
         <v>5</v>
       </c>
-      <c r="F112" s="46">
+      <c r="F112" s="35">
         <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -3408,12 +3409,12 @@
       <c r="F118" s="10"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="34"/>
-      <c r="B119" s="34"/>
-      <c r="C119" s="34"/>
-      <c r="D119" s="34"/>
-      <c r="E119" s="34"/>
-      <c r="F119" s="34"/>
+      <c r="A119" s="38"/>
+      <c r="B119" s="38"/>
+      <c r="C119" s="38"/>
+      <c r="D119" s="38"/>
+      <c r="E119" s="38"/>
+      <c r="F119" s="38"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="17"/>
@@ -3464,12 +3465,12 @@
       <c r="F125" s="10"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="34"/>
-      <c r="B126" s="34"/>
-      <c r="C126" s="34"/>
-      <c r="D126" s="34"/>
-      <c r="E126" s="34"/>
-      <c r="F126" s="34"/>
+      <c r="A126" s="38"/>
+      <c r="B126" s="38"/>
+      <c r="C126" s="38"/>
+      <c r="D126" s="38"/>
+      <c r="E126" s="38"/>
+      <c r="F126" s="38"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="17"/>
@@ -3520,12 +3521,12 @@
       <c r="F132" s="10"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="34"/>
-      <c r="B133" s="34"/>
-      <c r="C133" s="34"/>
-      <c r="D133" s="34"/>
-      <c r="E133" s="34"/>
-      <c r="F133" s="34"/>
+      <c r="A133" s="38"/>
+      <c r="B133" s="38"/>
+      <c r="C133" s="38"/>
+      <c r="D133" s="38"/>
+      <c r="E133" s="38"/>
+      <c r="F133" s="38"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="17"/>
@@ -3576,12 +3577,12 @@
       <c r="F139" s="10"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="34"/>
-      <c r="B140" s="34"/>
-      <c r="C140" s="34"/>
-      <c r="D140" s="34"/>
-      <c r="E140" s="34"/>
-      <c r="F140" s="34"/>
+      <c r="A140" s="38"/>
+      <c r="B140" s="38"/>
+      <c r="C140" s="38"/>
+      <c r="D140" s="38"/>
+      <c r="E140" s="38"/>
+      <c r="F140" s="38"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="17"/>
@@ -3632,12 +3633,12 @@
       <c r="F146" s="10"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="34"/>
-      <c r="B147" s="34"/>
-      <c r="C147" s="34"/>
-      <c r="D147" s="34"/>
-      <c r="E147" s="34"/>
-      <c r="F147" s="34"/>
+      <c r="A147" s="38"/>
+      <c r="B147" s="38"/>
+      <c r="C147" s="38"/>
+      <c r="D147" s="38"/>
+      <c r="E147" s="38"/>
+      <c r="F147" s="38"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="17"/>
@@ -3688,12 +3689,12 @@
       <c r="F153" s="10"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="34"/>
-      <c r="B154" s="34"/>
-      <c r="C154" s="34"/>
-      <c r="D154" s="34"/>
-      <c r="E154" s="34"/>
-      <c r="F154" s="34"/>
+      <c r="A154" s="38"/>
+      <c r="B154" s="38"/>
+      <c r="C154" s="38"/>
+      <c r="D154" s="38"/>
+      <c r="E154" s="38"/>
+      <c r="F154" s="38"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="17"/>
@@ -3744,12 +3745,12 @@
       <c r="F160" s="10"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="34"/>
-      <c r="B161" s="34"/>
-      <c r="C161" s="34"/>
-      <c r="D161" s="34"/>
-      <c r="E161" s="34"/>
-      <c r="F161" s="34"/>
+      <c r="A161" s="38"/>
+      <c r="B161" s="38"/>
+      <c r="C161" s="38"/>
+      <c r="D161" s="38"/>
+      <c r="E161" s="38"/>
+      <c r="F161" s="38"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="17"/>
@@ -3800,12 +3801,12 @@
       <c r="F167" s="10"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" s="34"/>
-      <c r="B168" s="34"/>
-      <c r="C168" s="34"/>
-      <c r="D168" s="34"/>
-      <c r="E168" s="34"/>
-      <c r="F168" s="34"/>
+      <c r="A168" s="38"/>
+      <c r="B168" s="38"/>
+      <c r="C168" s="38"/>
+      <c r="D168" s="38"/>
+      <c r="E168" s="38"/>
+      <c r="F168" s="38"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="17"/>
@@ -3856,12 +3857,12 @@
       <c r="F174" s="10"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="34"/>
-      <c r="B175" s="34"/>
-      <c r="C175" s="34"/>
-      <c r="D175" s="34"/>
-      <c r="E175" s="34"/>
-      <c r="F175" s="34"/>
+      <c r="A175" s="38"/>
+      <c r="B175" s="38"/>
+      <c r="C175" s="38"/>
+      <c r="D175" s="38"/>
+      <c r="E175" s="38"/>
+      <c r="F175" s="38"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="17"/>
@@ -3912,12 +3913,12 @@
       <c r="F181" s="10"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182" s="34"/>
-      <c r="B182" s="34"/>
-      <c r="C182" s="34"/>
-      <c r="D182" s="34"/>
-      <c r="E182" s="34"/>
-      <c r="F182" s="34"/>
+      <c r="A182" s="38"/>
+      <c r="B182" s="38"/>
+      <c r="C182" s="38"/>
+      <c r="D182" s="38"/>
+      <c r="E182" s="38"/>
+      <c r="F182" s="38"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="17"/>
